--- a/CucumberFramework/src/test/resources/Data/DemoSprint.xlsx
+++ b/CucumberFramework/src/test/resources/Data/DemoSprint.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ContinuumAutomation\BDTAutomationFramework\CucumberFramework\src\test\resources\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10665" windowHeight="2520"/>
   </bookViews>
   <sheets>
     <sheet name="12345" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -56,9 +52,6 @@
     <t>wee</t>
   </si>
   <si>
-    <t>abc</t>
-  </si>
-  <si>
     <t>sxk</t>
   </si>
   <si>
@@ -66,6 +59,9 @@
   </si>
   <si>
     <t>dfasdf</t>
+  </si>
+  <si>
+    <t>Desktop</t>
   </si>
 </sst>
 </file>
@@ -386,7 +382,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,7 +419,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -431,7 +427,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -439,7 +435,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -447,7 +443,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
